--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C0E3CA-BBF0-4247-916E-D0C0919F2B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E2B0A-7A36-4A36-8BA8-AF3F624802BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
     <sheet name="PARTICIPACION" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$I$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$I$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PARTICIPACION!$B$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>ROJAS FLORES JAIME LUIS</t>
+  </si>
+  <si>
+    <t>MENDOZA LIZANA YENI ELIZABETH</t>
+  </si>
+  <si>
+    <t>MORALES GARRO ALBERTO LIZARDO</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,14 +364,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,10 +666,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,33 +747,33 @@
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>44176</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>44179</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>44181</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>44183</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <v>44186</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>44188</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>44190</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>44193</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -778,11 +784,11 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
@@ -812,86 +818,86 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -900,121 +906,153 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <v>11</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
+        <v>12</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>12</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>13</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
+        <v>15</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>14</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I19">
-    <sortCondition ref="C9:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I21">
+    <sortCondition ref="C9:C21"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E2B0A-7A36-4A36-8BA8-AF3F624802BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831D660-8A38-42DB-A948-ED4FBF8BE2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -666,10 +666,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +677,17 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
@@ -695,7 +696,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
         <v>22</v>
@@ -705,7 +706,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -715,7 +716,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
         <v>47</v>
@@ -725,7 +726,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>33</v>
@@ -735,12 +736,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -772,7 +773,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -782,7 +783,9 @@
       <c r="D9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="22"/>
@@ -790,7 +793,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>2</v>
       </c>
@@ -805,8 +808,18 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="12">
+        <v>3</v>
+      </c>
+      <c r="P10" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>+O10*P10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -816,15 +829,27 @@
       <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="12">
+        <v>2</v>
+      </c>
+      <c r="P11" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>+O11*P11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -834,15 +859,25 @@
       <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="23"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="12">
+        <f>SUM(P10:P11)</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>SUM(Q10:Q11)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -852,7 +887,9 @@
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="22"/>
@@ -860,7 +897,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -870,7 +907,9 @@
       <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="22"/>
@@ -878,7 +917,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -888,7 +927,9 @@
       <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="22"/>
@@ -896,7 +937,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -904,7 +945,9 @@
         <v>41</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="22"/>
@@ -920,7 +963,9 @@
         <v>50</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="22"/>
@@ -936,7 +981,9 @@
         <v>51</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="22"/>
@@ -945,22 +992,24 @@
       <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24">
@@ -990,7 +1039,9 @@
       <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="22"/>
@@ -1006,7 +1057,9 @@
         <v>45</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="22"/>
@@ -1042,7 +1095,9 @@
       <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="22"/>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831D660-8A38-42DB-A948-ED4FBF8BE2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388FD08-AAB6-47B1-8E60-A88B76FEB44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,8 +677,8 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -786,7 +786,9 @@
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -832,7 +834,9 @@
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -862,7 +866,9 @@
       <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="23"/>
       <c r="I12" s="22"/>
@@ -890,7 +896,9 @@
       <c r="E13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -910,7 +918,9 @@
       <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -948,7 +958,9 @@
       <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -966,7 +978,9 @@
       <c r="E17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -984,7 +998,9 @@
       <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -1004,7 +1020,9 @@
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -1042,7 +1060,9 @@
       <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -1060,7 +1080,9 @@
       <c r="E22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -1098,7 +1120,9 @@
       <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388FD08-AAB6-47B1-8E60-A88B76FEB44C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE593E5-EB17-4901-B831-8720212D672D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,8 +677,8 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -837,7 +837,9 @@
       <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -869,7 +871,9 @@
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H12" s="23"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -921,7 +925,9 @@
       <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -941,7 +947,9 @@
         <v>48</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -981,7 +989,9 @@
       <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1001,7 +1011,9 @@
       <c r="F18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -1063,7 +1075,9 @@
       <c r="F21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1083,7 +1097,9 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -1123,7 +1139,9 @@
       <c r="F24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE593E5-EB17-4901-B831-8720212D672D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9295DD13-2B1F-478F-BBA3-A3E44C95EEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -370,9 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,7 +669,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,9 +677,9 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="6" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.7109375" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -695,6 +695,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -705,6 +706,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -715,6 +717,7 @@
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -725,6 +728,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -735,6 +739,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -790,26 +795,28 @@
         <v>48</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="O10" s="12">
         <v>3</v>
       </c>
@@ -840,7 +847,9 @@
       <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -874,7 +883,7 @@
       <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -904,7 +913,9 @@
         <v>48</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -928,7 +939,9 @@
       <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -950,7 +963,7 @@
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -970,7 +983,9 @@
         <v>48</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -992,7 +1007,9 @@
       <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -1014,7 +1031,9 @@
       <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -1036,28 +1055,30 @@
         <v>48</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>12</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="D20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -1078,7 +1099,9 @@
       <c r="G21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -1100,28 +1123,28 @@
       <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>15</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="D23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1142,7 +1165,9 @@
       <c r="G24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9295DD13-2B1F-478F-BBA3-A3E44C95EEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF83BB-6EDE-4800-85E4-717097126CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>NRO</t>
   </si>
@@ -669,7 +669,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I9" sqref="I9:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,9 +677,9 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="8.7109375" customWidth="1"/>
+    <col min="4" max="8" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,6 +696,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
@@ -707,6 +708,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
@@ -718,6 +720,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -729,6 +732,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -740,6 +744,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
@@ -798,7 +803,9 @@
       <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
@@ -814,7 +821,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="O10" s="12">
@@ -850,7 +857,9 @@
       <c r="H11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="O11" s="12">
@@ -884,7 +893,7 @@
         <v>48</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="P12" s="12">
@@ -916,7 +925,9 @@
       <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
@@ -942,7 +953,9 @@
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
@@ -964,7 +977,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
@@ -986,7 +999,7 @@
       <c r="H16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
@@ -1010,7 +1023,9 @@
       <c r="H17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
@@ -1034,7 +1049,9 @@
       <c r="H18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
     </row>
@@ -1058,7 +1075,7 @@
       <c r="H19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
     </row>
@@ -1076,7 +1093,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
     </row>
@@ -1102,7 +1119,9 @@
       <c r="H21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
     </row>
@@ -1124,7 +1143,7 @@
         <v>48</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
     </row>
@@ -1142,7 +1161,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
@@ -1168,7 +1187,7 @@
       <c r="H24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
     </row>

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF83BB-6EDE-4800-85E4-717097126CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A07D7-1078-47B0-A021-7496EC66BB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="300" windowWidth="14205" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>NRO</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>MORALES GARRO ALBERTO LIZARDO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>EX</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I24"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,17 +683,17 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="8" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="15" width="8.7109375" customWidth="1"/>
+    <col min="4" max="10" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
@@ -697,8 +703,11 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
         <v>22</v>
@@ -709,8 +718,11 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -721,8 +733,11 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
         <v>47</v>
@@ -733,8 +748,11 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>33</v>
@@ -745,13 +763,16 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -782,8 +803,11 @@
       <c r="K8" s="21">
         <v>44193</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -806,10 +830,17 @@
       <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>2</v>
       </c>
@@ -822,20 +853,11 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="O10" s="12">
-        <v>3</v>
-      </c>
-      <c r="P10" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>+O10*P10</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -860,20 +882,17 @@
       <c r="I11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="O11" s="12">
-        <v>2</v>
-      </c>
-      <c r="P11" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="12">
-        <f>+O11*P11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -894,18 +913,11 @@
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="P12" s="12">
-        <f>SUM(P10:P11)</f>
-        <v>5</v>
-      </c>
-      <c r="Q12" s="12">
-        <f>SUM(Q10:Q11)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -928,10 +940,11 @@
       <c r="I13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -956,10 +969,15 @@
       <c r="I14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -978,10 +996,11 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:17" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1000,10 +1019,17 @@
         <v>48</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1026,10 +1052,17 @@
       <c r="I17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1052,10 +1085,17 @@
       <c r="I18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1076,10 +1116,15 @@
         <v>48</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
         <v>12</v>
       </c>
@@ -1094,10 +1139,11 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -1122,10 +1168,17 @@
       <c r="I21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -1144,10 +1197,11 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23">
         <v>15</v>
       </c>
@@ -1162,10 +1216,11 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="2:11" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -1188,8 +1243,15 @@
         <v>48</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I21">

--- a/SQL-BI-55319.xlsx
+++ b/SQL-BI-55319.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\SQL-SERVER-BI-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A07D7-1078-47B0-A021-7496EC66BB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7097D83-52AF-4230-ADAB-2366E63A3B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="300" windowWidth="14205" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
-    <sheet name="PARTICIPACION" sheetId="2" r:id="rId2"/>
+    <sheet name="ASISTENCIA (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="PARTICIPACION" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$B$1:$I$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PARTICIPACION!$B$1:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ASISTENCIA (2)'!$B$1:$I$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PARTICIPACION!$B$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="72">
   <si>
     <t>NRO</t>
   </si>
@@ -192,6 +194,60 @@
   </si>
   <si>
     <t>EX</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>yeni.mlizana@gmail.com</t>
+  </si>
+  <si>
+    <t>anivalneyrav@gmail.com</t>
+  </si>
+  <si>
+    <t>bpaguirrem@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lizbeth01.cortez09.98@gmail.com </t>
+  </si>
+  <si>
+    <t>lucio2508@gmail.com</t>
+  </si>
+  <si>
+    <t>jimmylopezaquino@gmail.com</t>
+  </si>
+  <si>
+    <t>macharealva@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando.martinez@pucp.pe </t>
+  </si>
+  <si>
+    <t>jmendozacarlos@hotmail.com</t>
+  </si>
+  <si>
+    <t>diego_2196@hotmail.com</t>
+  </si>
+  <si>
+    <t>brenda.ramirezv@pucp.pe</t>
+  </si>
+  <si>
+    <t>rossmerievelasquez@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rojas.jaime@outlook.com </t>
+  </si>
+  <si>
+    <t>brenda.oliveros.tarrillo@gmail.com</t>
+  </si>
+  <si>
+    <t>chavezfabian.jc@gmail.com</t>
+  </si>
+  <si>
+    <t>albertomoralesgarro@gmail.com</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -312,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +444,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis5" xfId="1" builtinId="45"/>
@@ -672,10 +739,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L24"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,17 +750,17 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="10" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
+    <col min="4" max="12" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="55.28515625" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
@@ -707,7 +774,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
         <v>22</v>
@@ -722,7 +789,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -737,7 +804,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
         <v>47</v>
@@ -752,7 +819,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>33</v>
@@ -767,12 +834,12 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
@@ -806,8 +873,11 @@
       <c r="L8" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -839,8 +909,11 @@
       <c r="L9" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>2</v>
       </c>
@@ -855,9 +928,12 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -891,8 +967,11 @@
       <c r="L11" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -916,8 +995,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -943,8 +1025,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -976,8 +1061,11 @@
       <c r="L14" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -999,8 +1087,11 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1028,8 +1119,11 @@
       <c r="L16" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1061,8 +1155,11 @@
       <c r="L17" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1094,8 +1191,9 @@
       <c r="L18" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1123,8 +1221,11 @@
       <c r="L19" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
         <v>12</v>
       </c>
@@ -1141,9 +1242,12 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="28"/>
+      <c r="M20" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -1177,8 +1281,11 @@
       <c r="L21" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -1200,8 +1307,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23">
         <v>15</v>
       </c>
@@ -1218,9 +1328,12 @@
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:12" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="28"/>
+      <c r="M23" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -1252,6 +1365,15 @@
       <c r="L24" s="16" t="s">
         <v>52</v>
       </c>
+      <c r="M24" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I21">
@@ -1265,6 +1387,619 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8A4648-AE2B-4A62-B465-1DC6AEB9C57E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:N23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="55.28515625" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>44176</v>
+      </c>
+      <c r="E8" s="21">
+        <v>44179</v>
+      </c>
+      <c r="F8" s="21">
+        <v>44181</v>
+      </c>
+      <c r="G8" s="21">
+        <v>44183</v>
+      </c>
+      <c r="H8" s="21">
+        <v>44186</v>
+      </c>
+      <c r="I8" s="21">
+        <v>44188</v>
+      </c>
+      <c r="J8" s="21">
+        <v>44190</v>
+      </c>
+      <c r="K8" s="21">
+        <v>44193</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>4</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>8</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>10</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>11</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
+        <v>13</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661D4C7B-06E2-47F7-B6EA-F3A87E87F398}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
